--- a/submit/程序员日志-2112492刘修铭.xlsx
+++ b/submit/程序员日志-2112492刘修铭.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A235C9FB-E2B4-4BC9-B7E3-F65DE2F03E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4E059C-AC57-43F9-BEE6-D54F4799FE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="202x-xx-xx" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="2023-06-30" sheetId="6" r:id="rId6"/>
     <sheet name="2023-07-03" sheetId="7" r:id="rId7"/>
     <sheet name="2023-07-04" sheetId="8" r:id="rId8"/>
+    <sheet name="2023-07-05" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,6 +220,28 @@
 2.数据库配置和运行问题：
     问题：在安装和配置Neo4j图数据库时，可能会遇到一些配置和运行上的问题，如端口冲突、权限设置等。
     解决方案：为了解决这个问题，我会仔细阅读官方文档中的安装和配置部分，并按照指导进行操作。如果遇到问题，我会查找相关的解决方案和教程，并尝试进行调试和修复。如果问题仍然存在，我会寻求帮助，向官方支持或在线社区提问，以获得针对性的解决方案。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    今天我完成了以下任务：复习了Neo4j的相关知识、学习了Python虚拟环境的配置和进行了sklearn的算法演练。
+    首先，我花时间复习了Neo4j的相关知识。我回顾了Neo4j图数据库的基本概念、图模型和Cypher查询语言。通过复习，我加深了对Neo4j的理解，并掌握了一些常用的操作技巧。
+    接下来，我学习了Python虚拟环境的配置。虚拟环境是一种将Python项目的依赖包隔离开的工具，可以确保不同项目之间的依赖不冲突。我了解了虚拟环境的概念和使用方法，并学会了使用工具如venv或conda创建和管理虚拟环境。
+    最后，我进行了sklearn的算法演练。sklearn是一个流行的Python机器学习库，提供了丰富的机器学习算法和工具。我选择了一些常用的算法，如线性回归、决策树和支持向量机，并使用sklearn库在Python环境中实现了这些算法的演练。通过实践，我加深了对这些算法的理解，并学会了如何使用sklearn库进行机器学习任务。
+    通过完成这些任务，我巩固了对Neo4j、Python虚拟环境和sklearn的知识和技能。这将为我今后的项目和学习提供坚实的基础。明天，我计划继续学习和实践相关技术，扩展我的技术能力，并探索更多有趣的应用场景。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.理解和应用Neo4j的图数据库概念：Neo4j的图数据库概念相对于关系型数据库可能较为抽象，可能需要一些时间来理解和应用。解决方法包括：
+    阅读官方文档和教程：Neo4j提供了详细的文档和教程，可以帮助理解和应用图数据库的概念。
+    练习使用Cypher查询语言：通过编写和执行一些简单的Cypher查询语句，加深对图数据库概念的理解。
+2.配置Python虚拟环境：在配置Python虚拟环境时，可能会遇到安装依赖包、配置环境变量等问题。解决方法包括：
+    使用合适的虚拟环境工具：选择合适的虚拟环境工具，如venv、conda等，并按照官方文档进行配置和使用。
+    安装依赖包：在虚拟环境中使用pip或conda等包管理工具安装项目所需的依赖包。
+    配置环境变量：确保虚拟环境的解释器和项目的依赖包正确配置在环境变量中，以便在命令行中能够正常访问。
+3.sklearn算法演练问题：在进行sklearn的算法演练时，可能会遇到数据预处理、模型选择、调参等问题。解决方法包括：
+    数据预处理：了解常用的数据预处理技术，如缺失值处理、特征标准化、数据转换等，并根据数据的特点进行适当的预处理。
+    模型选择：根据问题的特点选择合适的机器学习算法，考虑算法的假设和性能，并根据需求进行评估和比较。
+    调参：调整模型的超参数以达到更好的性能，可以使用交叉验证、网格搜索等技术进行调参。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2066,8 +2089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D3EC318-D30F-4842-9F5E-961A6A839790}">
   <dimension ref="A2:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2182,6 +2205,166 @@
     <row r="12" spans="1:6" ht="206.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>25</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22"/>
+    </row>
+    <row r="13" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="1:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87332F1-5B92-4CA7-B373-CE763CA6C7D8}">
+  <dimension ref="A2:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.6328125" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" customWidth="1"/>
+    <col min="6" max="6" width="17.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9">
+        <v>45112</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
+    </row>
+    <row r="7" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28"/>
+    </row>
+    <row r="8" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28"/>
+    </row>
+    <row r="9" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="28"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="31"/>
+    </row>
+    <row r="11" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:6" ht="323" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>

--- a/submit/程序员日志-2112492刘修铭.xlsx
+++ b/submit/程序员日志-2112492刘修铭.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4E059C-AC57-43F9-BEE6-D54F4799FE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74AA70A-4021-4705-8F48-2C3B7BB49A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="202x-xx-xx" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,15 @@
     <sheet name="2023-07-03" sheetId="7" r:id="rId7"/>
     <sheet name="2023-07-04" sheetId="8" r:id="rId8"/>
     <sheet name="2023-07-05" sheetId="9" r:id="rId9"/>
+    <sheet name="2023-07-06" sheetId="10" r:id="rId10"/>
+    <sheet name="2023-07-07" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="32">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -242,6 +244,34 @@
     数据预处理：了解常用的数据预处理技术，如缺失值处理、特征标准化、数据转换等，并根据数据的特点进行适当的预处理。
     模型选择：根据问题的特点选择合适的机器学习算法，考虑算法的假设和性能，并根据需求进行评估和比较。
     调参：调整模型的超参数以达到更好的性能，可以使用交叉验证、网格搜索等技术进行调参。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    今天我专注于两个任务。首先，我开始使用Python语言控制Neo4j数据库。Neo4j是一种高性能的图形数据库，适用于存储和处理复杂的关系数据。我首先安装了Neo4j的Python驱动程序，然后创建了与数据库的连接。
+    接下来，我编写了一些Python代码来执行与Neo4j数据库的交互操作。我学习了Cypher查询语言，这是Neo4j的查询语言，用于检索和操作图形数据。我创建了一个示例数据库，并编写了查询来查找特定节点和关系，以及执行一些聚合操作。
+    在完成Neo4j的控制任务后，我转向第二个任务：完成Keras的算法演练。Keras是一个高级神经网络库，它可以在底层使用不同的深度学习框架，如TensorFlow和Theano。我首先安装了Keras和TensorFlow，并导入了所需的库。
+    接着，我准备了一个用于演练的数据集，并进行了必要的数据预处理。然后，我使用Keras建立了一个模型，并编写了代码来训练和评估模型的性能。我尝试了不同的网络结构、激活函数和优化算法，以找到最佳的配置。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Neo4j连接问题：在与Neo4j建立连接时，我遇到了一些连接错误。我检查了Neo4j的配置和凭据，并确保数据库正在运行。此外，我还验证了我是否使用了正确的Python驱动程序版本。最终，我修复了连接问题，并成功连接到了Neo4j数据库。
+2.Cypher查询编写问题：刚开始使用Cypher查询语言时，我对其语法和用法不熟悉，因此在编写查询时出现了一些错误。我通过阅读官方文档和参考示例查询来学习Cypher的语法规则，并逐步改进了我的查询代码。我还尝试了一些实验查询，以确保我能够正确地检索和操作图形数据。
+3.Keras模型调优问题：在进行Keras算法演练时，我遇到了一些模型性能不佳的情况。我注意到可能是因为模型结构、超参数或数据处理方式不合适。为了解决这个问题，我进行了一些调优实验，尝试了不同的模型架构、激活函数和优化算法。我还对数据进行了更详细的分析和预处理，以提高模型的性能。通过不断尝试和调整，我成功改进了模型的性能。
+4.整合Neo4j和其他Python库问题：虽然我还没有深入研究如何将Neo4j与其他Python库集成，但我了解到有一些第三方库可以帮助实现这一目标，如py2neo和neobolt。这些库提供了与Neo4j数据库交互的更高级别的接口和功能。为了解决这个问题，我计划在明天继续研究这些库的使用方法，以便将Neo4j与其他Python库进行无缝整合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    今天我取得了一些重要的进展。首先，我成功完成了SQL的应用实战。我使用了一种流行的关系型数据库（如MySQL或PostgreSQL）来实现这个实战项目。通过使用SQL语言，我能够创建数据库表、插入数据、执行查询和更新操作等。
+    在这个应用实战中，我设计了一个简单的数据库模式，以存储用户信息和订单信息。我创建了两个表，分别用于存储用户和订单的数据。我使用SQL语句编写了创建表、插入数据和查询数据的代码，并确保数据的一致性和完整性。
+    完成这个实战项目后，我对关系型数据库的设计有了更深入的了解。我学习了数据库范式化、主键-外键关系、索引的使用等概念和技术。这些知识对于设计高效和可扩展的数据库系统至关重要。
+    另外，我还探索了与关系型数据库之间的转换。图形数据库是一种专门用于存储和处理图形结构数据的数据库。我了解了图形数据库的特点、优势和用途，并学习了使用Neo4j这样的图形数据库管理系统。
+    通过比较关系型数据库和图形数据库的特点，我意识到在某些场景下，图形数据库可能更适合存储和查询复杂的关系数据。我学习了如何将关系型数据模型转换为图形数据模型，并使用相应的图形数据库查询语言（如Cypher）进行查询和操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.SQL语法错误：在编写SQL语句时，我可能会犯一些语法错误，例如拼写错误、缺少必要的关键字或错误的语句结构。为了解决这个问题，我仔细检查了我的SQL语句，特别是关键字、表名和列名的拼写。我还参考了SQL文档和示例来确保我的语法是正确的。
+2.数据库设计问题：在设计数据库模式时，我可能会面临一些挑战，如确定正确的表结构、定义适当的主键和外键关系，以及保持数据一致性和完整性。为了解决这个问题，我深入学习了数据库设计的基本原则和范式化规范，并使用这些知识来指导我的设计过程。我还参考了一些实际的数据库设计案例，以获得更好的设计灵感。
+3.图形数据库查询问题：在学习图形数据库和图形查询语言时，我可能会面临一些查询复杂关系数据的挑战。图形数据库使用不同于SQL的查询语言（如Cypher），并且需要以图形结构的方式思考和查询数据。为了解决这个问题，我系统地学习了图形数据库的查询语言和语法，并通过实践编写和执行各种查询来加深理解。我还阅读了一些图形数据库的文档和教程，以便更好地掌握查询技巧和优化方法。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1124,6 +1154,326 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05549556-22A0-45E2-B316-F3D07CEAA483}">
+  <dimension ref="A2:F14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J13" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.6328125" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" customWidth="1"/>
+    <col min="6" max="6" width="17.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9">
+        <v>45113</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
+    </row>
+    <row r="7" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28"/>
+    </row>
+    <row r="8" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="28"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="31"/>
+    </row>
+    <row r="11" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:6" ht="236" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22"/>
+    </row>
+    <row r="13" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="1:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E8F1BDF-A692-42CF-9AD4-DC5514189810}">
+  <dimension ref="A2:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.6328125" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" customWidth="1"/>
+    <col min="6" max="6" width="17.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9">
+        <v>45114</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
+    </row>
+    <row r="7" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28"/>
+    </row>
+    <row r="8" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28"/>
+    </row>
+    <row r="9" spans="1:6" ht="59" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="28"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="31"/>
+    </row>
+    <row r="11" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:6" ht="210" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22"/>
+    </row>
+    <row r="13" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="1:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A9CF174-7EEF-47C9-B2A9-C74C5DA529F0}">
   <dimension ref="A2:F14"/>
@@ -2249,8 +2599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87332F1-5B92-4CA7-B373-CE763CA6C7D8}">
   <dimension ref="A2:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>

--- a/submit/程序员日志-2112492刘修铭.xlsx
+++ b/submit/程序员日志-2112492刘修铭.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74AA70A-4021-4705-8F48-2C3B7BB49A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC69150E-1CF5-4C82-81B6-5DC9CA0B5BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="202x-xx-xx" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="2023-07-05" sheetId="9" r:id="rId9"/>
     <sheet name="2023-07-06" sheetId="10" r:id="rId10"/>
     <sheet name="2023-07-07" sheetId="11" r:id="rId11"/>
+    <sheet name="2023-07-10" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="34">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -272,6 +273,30 @@
     <t>1.SQL语法错误：在编写SQL语句时，我可能会犯一些语法错误，例如拼写错误、缺少必要的关键字或错误的语句结构。为了解决这个问题，我仔细检查了我的SQL语句，特别是关键字、表名和列名的拼写。我还参考了SQL文档和示例来确保我的语法是正确的。
 2.数据库设计问题：在设计数据库模式时，我可能会面临一些挑战，如确定正确的表结构、定义适当的主键和外键关系，以及保持数据一致性和完整性。为了解决这个问题，我深入学习了数据库设计的基本原则和范式化规范，并使用这些知识来指导我的设计过程。我还参考了一些实际的数据库设计案例，以获得更好的设计灵感。
 3.图形数据库查询问题：在学习图形数据库和图形查询语言时，我可能会面临一些查询复杂关系数据的挑战。图形数据库使用不同于SQL的查询语言（如Cypher），并且需要以图形结构的方式思考和查询数据。为了解决这个问题，我系统地学习了图形数据库的查询语言和语法，并通过实践编写和执行各种查询来加深理解。我还阅读了一些图形数据库的文档和教程，以便更好地掌握查询技巧和优化方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    今天我主要完成了以下三个任务：安装并配置Django、对Django有了初步了解，并成功实现了Django初步项目。
+1.安装并配置Django
+    我开始了安装和配置Django的工作。首先，我通过pip工具安装了Django的最新版本。安装过程很顺利，并且我根据系统要求进行了环境配置。接下来，我验证了Django的安装是否成功，通过在命令行中输入django-admin --version命令，确认Django成功安装并获取到了正确的版本信息。
+2.对Django的初步了解
+    在安装和配置Django之后，我开始对Django进行初步了解。我阅读了Django的官方文档，并结合一些在线教程，了解了Django的基本概念和核心特性。
+我了解了Django的MTV模型（模型-模板-视图）的架构，以及如何创建和管理Django的项目和应用。我还学习了Django的URL映射、视图函数和模板系统等基本功能。
+3.实现Django初步项目
+    在对Django有了初步了解之后，我决定实践一下，完成一个Django的初步项目。我创建了一个新的Django项目，并在项目中创建了一个简单的应用。
+在应用中，我创建了一个URL映射，将请求路由到相应的视图函数。我编写了视图函数，处理请求并返回相应的HTML模板。我还创建了一个简单的模板文件，用于渲染动态内容。最后，我启动了Django的开发服务器，并在浏览器中访问了我的项目，成功看到了我编写的页面。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.环境配置问题：
+    问题：在安装和配置Django时，我可能会遇到环境配置方面的问题，如Python版本兼容性、依赖库的安装等。
+    解决方案：为了解决这个问题，我会仔细阅读Django的官方文档，查找关于环境配置的指导和建议。我会确保我使用的Python版本符合Django的要求，并安装所需的依赖库。如果遇到问题，我会搜索相关的解决方案，并寻求帮助，向Django的官方支持或在线社区提问。
+2.学习资源选择问题：
+    问题：在对Django的初步了解过程中，我可能会遇到学习资源选择方面的问题，如选择合适的教程、示例项目等。
+    解决方案：为了解决这个问题，我会进行一些研究和调查，查找一些权威和受欢迎的Django学习资源。我会参考Django官方文档、在线教程和书籍，并阅读其他开发者的推荐和评价。我还可以参与Django的社区和论坛，与其他开发者交流，了解他们的学习经验和推荐资源。通过综合考虑和比较，我会选择适合自己学习风格和需求的资源。
+3.项目实践中的问题：
+    问题：在实现Django初步项目的过程中，可能会遇到一些具体的问题，如路由配置、视图函数编写、模板渲染等方面的困难。
+    解决方案：为了解决这个问题，我会仔细阅读Django官方文档中与路由配置、视图函数和模板渲染相关的部分。我会参考示例代码和实践项目的源代码，了解其实现方法和最佳实践。如果遇到问题，我会向Django的官方支持、在线社区或其他开发者请教，寻求帮助和解答。在遇到困难时，我也会进行适当的调试和尝试，通过错误排查和修改代码，找到解决问题的方法。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1318,8 +1343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E8F1BDF-A692-42CF-9AD4-DC5514189810}">
   <dimension ref="A2:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1434,6 +1459,166 @@
     <row r="12" spans="1:6" ht="210" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>31</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22"/>
+    </row>
+    <row r="13" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="1:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ADC2548-A21E-4AE1-8F1A-1BA855214CDA}">
+  <dimension ref="A2:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.6328125" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" customWidth="1"/>
+    <col min="6" max="6" width="17.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9">
+        <v>45117</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
+    </row>
+    <row r="7" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28"/>
+    </row>
+    <row r="8" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28"/>
+    </row>
+    <row r="9" spans="1:6" ht="59" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="28"/>
+    </row>
+    <row r="10" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="31"/>
+    </row>
+    <row r="11" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:6" ht="336" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>33</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>

--- a/submit/程序员日志-2112492刘修铭.xlsx
+++ b/submit/程序员日志-2112492刘修铭.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC69150E-1CF5-4C82-81B6-5DC9CA0B5BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35C2754-8FA6-47DE-A2E7-26AEFA32C7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="5" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="202x-xx-xx" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,15 @@
     <sheet name="2023-07-06" sheetId="10" r:id="rId10"/>
     <sheet name="2023-07-07" sheetId="11" r:id="rId11"/>
     <sheet name="2023-07-10" sheetId="12" r:id="rId12"/>
+    <sheet name="2023-07-11" sheetId="13" r:id="rId13"/>
+    <sheet name="2023-07-12" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="38">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -297,6 +299,38 @@
 3.项目实践中的问题：
     问题：在实现Django初步项目的过程中，可能会遇到一些具体的问题，如路由配置、视图函数编写、模板渲染等方面的困难。
     解决方案：为了解决这个问题，我会仔细阅读Django官方文档中与路由配置、视图函数和模板渲染相关的部分。我会参考示例代码和实践项目的源代码，了解其实现方法和最佳实践。如果遇到问题，我会向Django的官方支持、在线社区或其他开发者请教，寻求帮助和解答。在遇到困难时，我也会进行适当的调试和尝试，通过错误排查和修改代码，找到解决问题的方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    今天我专注于学习并掌握了 echarts 数据可视化库的使用。我首先阅读了官方文档，了解了 echarts 的基本概念和用法。随后，我下载并安装了 echarts 库，并成功地将其集成到我的项目中。
+    在接下来的学习过程中，我重点关注了 echarts 的图表类型、数据格式以及配置选项。通过官方示例和案例研究，我逐渐熟悉了如何使用 echarts 创建各种图表，包括折线图、柱状图、饼图等。
+    我注意到 echarts 提供了丰富的 API 和选项，使我可以对图表进行个性化的定制。我学习了如何设置图表的标题、轴标签、图例以及其他样式属性。此外，我还学习了如何通过数据绑定和更新机制来实时更新图表数据。
+    通过不断的实践和调试，我成功地创建了一个基于 echarts 的图表页面，并实现了数据的动态展示和交互功能。我感到非常满意，因为这是我第一次使用 echarts，能够在短时间内掌握并应用它。
+    在今天的学习过程中，我遇到了一些挑战，特别是在配置选项方面。有时候我会遇到一些错误或者不符合预期的结果，但我通过查找文档和搜索相关问题的解决方案，逐渐克服了这些困难。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+存在的问题：
+    在学习 echarts 的过程中遇到了配置选项方面的挑战。
+解决方案：
+    对于配置选项方面的挑战，可以采取以下措施：
+    仔细阅读官方文档：官方文档是学习 echarts 最重要的资源，里面详细介绍了各种配置选项的用法和示例代码。
+查找示例代码：官方文档中提供了很多示例代码，可以直接使用或参考，帮助理解和应用配置选项。  
+    参考社区和论坛：echarts 有一个活跃的社区，可以在社区和论坛中提问并寻求帮助，从其他开发者那里获取解决方案或建议。
+    当遇到错误或不符合预期的结果时，可以尝试以下方法来解决问题：
+    仔细检查代码：回顾自己的代码，确保没有拼写错误、语法错误或逻辑错误。
+    调试和输出：使用调试工具或输出语句来追踪代码执行过程，查看变量的值、函数的返回结果等，以找出问题所在。
+    搜索解决方案：在搜索引擎或开发者社区中搜索相关问题，很可能会找到其他开发者遇到相似问题的解决方案。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成Django框架下的小组作业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一切顺利！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1503,8 +1537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ADC2548-A21E-4AE1-8F1A-1BA855214CDA}">
   <dimension ref="A2:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1619,6 +1653,326 @@
     <row r="12" spans="1:6" ht="336" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>33</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22"/>
+    </row>
+    <row r="13" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="1:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06A5B91-7756-452E-8588-7FBF3E385BC3}">
+  <dimension ref="A2:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.6328125" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" customWidth="1"/>
+    <col min="6" max="6" width="17.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9">
+        <v>45117</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
+    </row>
+    <row r="7" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28"/>
+    </row>
+    <row r="8" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28"/>
+    </row>
+    <row r="9" spans="1:6" ht="59" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="28"/>
+    </row>
+    <row r="10" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="31"/>
+    </row>
+    <row r="11" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:6" ht="336" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22"/>
+    </row>
+    <row r="13" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="1:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB8630D8-2D8D-494F-86C7-18BD751AB42F}">
+  <dimension ref="A2:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.6328125" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" customWidth="1"/>
+    <col min="6" max="6" width="17.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9">
+        <v>45117</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="28"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="31"/>
+    </row>
+    <row r="11" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>

--- a/submit/程序员日志-2112492刘修铭.xlsx
+++ b/submit/程序员日志-2112492刘修铭.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35C2754-8FA6-47DE-A2E7-26AEFA32C7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E729EE6-9AD3-4A12-A770-7421DC7C5EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="5" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="5" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="202x-xx-xx" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,14 @@
     <sheet name="2023-07-10" sheetId="12" r:id="rId12"/>
     <sheet name="2023-07-11" sheetId="13" r:id="rId13"/>
     <sheet name="2023-07-12" sheetId="14" r:id="rId14"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="39">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -331,6 +332,10 @@
   </si>
   <si>
     <t>一切顺利！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成课堂爬虫练习</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1857,8 +1862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB8630D8-2D8D-494F-86C7-18BD751AB42F}">
   <dimension ref="A2:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K25" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1921,6 +1926,166 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>36</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="28"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="31"/>
+    </row>
+    <row r="11" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22"/>
+    </row>
+    <row r="13" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="1:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC359028-E16F-4B74-A9D8-565148CB9832}">
+  <dimension ref="A2:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.6328125" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" customWidth="1"/>
+    <col min="6" max="6" width="17.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9">
+        <v>45117</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>38</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>

--- a/submit/程序员日志-2112492刘修铭.xlsx
+++ b/submit/程序员日志-2112492刘修铭.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E729EE6-9AD3-4A12-A770-7421DC7C5EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DF0421-956A-4CCC-B762-EF0E316281C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="5" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="202x-xx-xx" sheetId="1" r:id="rId1"/>
@@ -22,14 +22,15 @@
     <sheet name="2023-07-10" sheetId="12" r:id="rId12"/>
     <sheet name="2023-07-11" sheetId="13" r:id="rId13"/>
     <sheet name="2023-07-12" sheetId="14" r:id="rId14"/>
-    <sheet name="Sheet1" sheetId="15" r:id="rId15"/>
+    <sheet name="2023-07-13" sheetId="16" r:id="rId15"/>
+    <sheet name="2023-07-14" sheetId="15" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="40">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -335,7 +336,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.完成课堂爬虫练习</t>
+    <t>确定了课程项目的主题，完成了小组分工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌握了动态界面的爬虫技巧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1542,8 +1547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ADC2548-A21E-4AE1-8F1A-1BA855214CDA}">
   <dimension ref="A2:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L12" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1703,7 +1708,7 @@
   <dimension ref="A2:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1728,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="9">
-        <v>45117</v>
+        <v>45118</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>5</v>
@@ -1863,7 +1868,7 @@
   <dimension ref="A2:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="A1:XFD1048576"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1888,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="9">
-        <v>45117</v>
+        <v>45119</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>5</v>
@@ -2019,11 +2024,11 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC359028-E16F-4B74-A9D8-565148CB9832}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914484CA-0381-4DC5-BFB4-8E4D6D1B79D1}">
   <dimension ref="A2:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2048,7 +2053,167 @@
         <v>0</v>
       </c>
       <c r="B3" s="9">
-        <v>45117</v>
+        <v>45120</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="28"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="31"/>
+    </row>
+    <row r="11" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22"/>
+    </row>
+    <row r="13" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="1:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC359028-E16F-4B74-A9D8-565148CB9832}">
+  <dimension ref="A2:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.6328125" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" customWidth="1"/>
+    <col min="6" max="6" width="17.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9">
+        <v>45121</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>5</v>

--- a/submit/程序员日志-2112492刘修铭.xlsx
+++ b/submit/程序员日志-2112492刘修铭.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DF0421-956A-4CCC-B762-EF0E316281C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608B7477-3FF5-48EE-BEBA-D595327AD975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="8" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="202x-xx-xx" sheetId="1" r:id="rId1"/>
@@ -24,13 +24,14 @@
     <sheet name="2023-07-12" sheetId="14" r:id="rId14"/>
     <sheet name="2023-07-13" sheetId="16" r:id="rId15"/>
     <sheet name="2023-07-14" sheetId="15" r:id="rId16"/>
+    <sheet name="2023-07-17" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="41">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -341,6 +342,11 @@
   </si>
   <si>
     <t>掌握了动态界面的爬虫技巧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.明确小组分工
+2.项目初步开展</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2027,7 +2033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914484CA-0381-4DC5-BFB4-8E4D6D1B79D1}">
   <dimension ref="A2:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -2188,7 +2194,7 @@
   <dimension ref="A2:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="A1:XFD1048576"/>
+      <selection activeCell="I16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2251,6 +2257,166 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>38</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="28"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="31"/>
+    </row>
+    <row r="11" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22"/>
+    </row>
+    <row r="13" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="1:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D4D240-E878-4739-9A81-D8700E09894F}">
+  <dimension ref="A2:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.6328125" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" customWidth="1"/>
+    <col min="6" max="6" width="17.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9">
+        <v>45124</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>40</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>

--- a/submit/程序员日志-2112492刘修铭.xlsx
+++ b/submit/程序员日志-2112492刘修铭.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608B7477-3FF5-48EE-BEBA-D595327AD975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2C362F-12D3-4160-B2B4-7B95CC5F27C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="8" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="9" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="202x-xx-xx" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,14 @@
     <sheet name="2023-07-13" sheetId="16" r:id="rId15"/>
     <sheet name="2023-07-14" sheetId="15" r:id="rId16"/>
     <sheet name="2023-07-17" sheetId="17" r:id="rId17"/>
+    <sheet name="2023-07-18" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="43">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -347,6 +348,14 @@
   <si>
     <t>1.明确小组分工
 2.项目初步开展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成后端语法分析及数据库查询</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2194,7 +2203,7 @@
   <dimension ref="A2:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="A1:XFD1048576"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2353,8 +2362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D4D240-E878-4739-9A81-D8700E09894F}">
   <dimension ref="A2:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2398,7 +2407,9 @@
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -2467,6 +2478,168 @@
       <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22"/>
+    </row>
+    <row r="13" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="1:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7207650-C953-4C60-A500-56D923094D15}">
+  <dimension ref="A2:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.6328125" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" customWidth="1"/>
+    <col min="6" max="6" width="17.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9">
+        <v>45125</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="28"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="31"/>
+    </row>
+    <row r="11" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>37</v>
       </c>

--- a/submit/程序员日志-2112492刘修铭.xlsx
+++ b/submit/程序员日志-2112492刘修铭.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2C362F-12D3-4160-B2B4-7B95CC5F27C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BEA43F-5E99-4DE7-AFB4-0EBEF0D181BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="9" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="12" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="202x-xx-xx" sheetId="1" r:id="rId1"/>
@@ -26,13 +26,16 @@
     <sheet name="2023-07-14" sheetId="15" r:id="rId16"/>
     <sheet name="2023-07-17" sheetId="17" r:id="rId17"/>
     <sheet name="2023-07-18" sheetId="18" r:id="rId18"/>
+    <sheet name="2023-07-19" sheetId="19" r:id="rId19"/>
+    <sheet name="2023-07-20" sheetId="20" r:id="rId20"/>
+    <sheet name="2023-07-21" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="47">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -356,6 +359,27 @@
   </si>
   <si>
     <t>完成后端语法分析及数据库查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与前端完成交互，实现初步的代码提示功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题：前后端交互时，传递信息与数据库存储形式不匹配
+解决方案：进行数据的二次处理
+问题：部分代码无法生成提示
+解决方案：查询数据库中相关内容，逐步Debug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.项目调试收尾
+2.编写项目需求说明文档
+3.制作答辩展示PPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答辩展示！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2524,8 +2548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7207650-C953-4C60-A500-56D923094D15}">
   <dimension ref="A2:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K26" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2642,6 +2666,168 @@
     <row r="12" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>37</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22"/>
+    </row>
+    <row r="13" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="1:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3712CC99-2657-40DE-B047-CAA55E1E5060}">
+  <dimension ref="A2:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.6328125" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" customWidth="1"/>
+    <col min="6" max="6" width="17.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9">
+        <v>45126</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="28"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="31"/>
+    </row>
+    <row r="11" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:6" ht="62.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>44</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -2802,6 +2988,330 @@
     <row r="12" spans="1:6" ht="218" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>16</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22"/>
+    </row>
+    <row r="13" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="1:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD8B6E89-C5DC-4512-9D55-67A9C34CBABD}">
+  <dimension ref="A2:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.6328125" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" customWidth="1"/>
+    <col min="6" max="6" width="17.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9">
+        <v>45127</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="28"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="31"/>
+    </row>
+    <row r="11" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:6" ht="62.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22"/>
+    </row>
+    <row r="13" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="1:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1E0380-18F2-41B7-A895-4B22F3DA6F8F}">
+  <dimension ref="A2:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.6328125" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" customWidth="1"/>
+    <col min="6" max="6" width="17.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9">
+        <v>45128</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="28"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="31"/>
+    </row>
+    <row r="11" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:6" ht="62.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
